--- a/database/seeders/00_SeederMaster.xlsx
+++ b/database/seeders/00_SeederMaster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\var\www\work\anime_library\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\private\anime_library-main\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F23C67-75B7-4B4E-96D1-BFF82819F95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92DA337-6A39-47C0-8C52-E8DD398E8235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="members" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>members</t>
     <phoneticPr fontId="3"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>Lemino</t>
+  </si>
+  <si>
+    <t>ゆうな</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ふうか</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -475,10 +483,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -525,7 +533,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" thickTop="1"/>
+    <row r="4" spans="1:4" ht="19" thickTop="1" thickBot="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" thickTop="1" thickBot="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -539,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
